--- a/Localization/Localization.xlsx
+++ b/Localization/Localization.xlsx
@@ -44537,7 +44537,7 @@
       </x:c>
       <x:c r="M664" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Ipergeometrica (Negativa)</x:t>
+          <x:t xml:space="preserve">Ipergeometrica</x:t>
         </x:is>
       </x:c>
     </x:row>
